--- a/.NET/SimpleExcelGrep/testdata/delete/expect/delete_test.xlsx
+++ b/.NET/SimpleExcelGrep/testdata/delete/expect/delete_test.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\.NET\SimpleExcelGrep\testdata\delete\expect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F32C039-4C44-484F-8055-7081CCEB86B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E032AD-B2CD-4CE9-92D8-061FF27972F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10845" yWindow="510" windowWidth="28800" windowHeight="14175" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,6 +24,44 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+  <si>
+    <t>banana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>BANANA</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>ＡＰＰＬＥ</t>
+  </si>
+  <si>
+    <t>ＢＡＮＡＮＡ</t>
+  </si>
+  <si>
+    <t>ＣＯＭＭＯＮ</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,7 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -386,4 +426,138 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63998B22-9DB3-43EB-97D0-32237593C6F4}">
+  <dimension ref="A2:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" activeCellId="1" sqref="A1:A1048576 E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB0A866-E987-4BF8-B098-E5FC9BF6AF86}">
+  <dimension ref="A2:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>